--- a/examples/analytical/pHBB1991/model_parameter_template.pHBB1991.uniform.xlsx
+++ b/examples/analytical/pHBB1991/model_parameter_template.pHBB1991.uniform.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
   <si>
     <t>class</t>
   </si>
@@ -129,9 +129,6 @@
     <t>dimensionless</t>
   </si>
   <si>
-    <t>porosity as a function of depth</t>
-  </si>
-  <si>
     <t>phi_Inf</t>
   </si>
   <si>
@@ -159,7 +156,7 @@
     <t>cm^2/yr</t>
   </si>
   <si>
-    <t>bioburbation coefficient as a function of depth</t>
+    <t>bioturbation coefficient</t>
   </si>
   <si>
     <t>bioirrigation</t>
@@ -171,7 +168,7 @@
     <t>yr^-1</t>
   </si>
   <si>
-    <t>bioirrigation coefficient as a function of depth</t>
+    <t>bioirrigation coefficient</t>
   </si>
   <si>
     <t>BoundaryCondition</t>
@@ -183,13 +180,13 @@
     <t>mmol cm^-3</t>
   </si>
   <si>
-    <t>Concentration of O2 at the TOP of sediment column</t>
+    <t>Concentration of O2 at the TOP</t>
   </si>
   <si>
     <t>O2L</t>
   </si>
   <si>
-    <t>Concentration of O2 at the BOTTOM of sediment column</t>
+    <t>Concentration of O2 at the BOTTOM</t>
   </si>
   <si>
     <t>pH0</t>
@@ -198,49 +195,49 @@
     <t>free pH scale</t>
   </si>
   <si>
-    <t>pH at the TOP of sediment column</t>
+    <t>pH at the TOP</t>
   </si>
   <si>
     <t>pHL</t>
   </si>
   <si>
-    <t>pH at the BOTTOM of sediment column</t>
+    <t>pH at the BOTTOM</t>
   </si>
   <si>
     <t>TCO20</t>
   </si>
   <si>
-    <t>Concentration of TCO2 at the TOP of sediment column</t>
+    <t>Concentration of TCO2 at the TOP</t>
   </si>
   <si>
     <t>TCO2L</t>
   </si>
   <si>
-    <t>Concentration of TCO2 at the BOTTOM of sediment column</t>
+    <t>Concentration of TCO2 at the BOTTOM</t>
   </si>
   <si>
     <t>TH2S0</t>
   </si>
   <si>
-    <t>Concentration of TH2S at the TOP of sediment column</t>
+    <t>Concentration of TH2S at the TOP</t>
   </si>
   <si>
     <t>TH2SL</t>
   </si>
   <si>
-    <t>Concentration of TH2S at the BOTTOM of sediment column</t>
+    <t>Concentration of TH2S at the BOTTOM</t>
   </si>
   <si>
     <t>TH3BO30</t>
   </si>
   <si>
-    <t>Concentration of TH3BO3 at the TOP of sediment column</t>
+    <t>Concentration of TH3BO3 at the TOP</t>
   </si>
   <si>
     <t>TH3BO3L</t>
   </si>
   <si>
-    <t>Concentration of TH3BO3 at the BOTTOM of sediment column</t>
+    <t>Concentration of TH3BO3 at the BOTTOM</t>
   </si>
   <si>
     <t>Reaction</t>
@@ -798,7 +795,7 @@
         <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -812,14 +809,14 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
         <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -827,20 +824,20 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
         <v>37</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
         <v>39</v>
-      </c>
-      <c r="F11" t="s">
-        <v>40</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -848,20 +845,20 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
         <v>43</v>
-      </c>
-      <c r="F12" t="s">
-        <v>44</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -869,20 +866,20 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
         <v>47</v>
-      </c>
-      <c r="F13" t="s">
-        <v>48</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -890,20 +887,20 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
         <v>49</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>50</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" t="s">
         <v>51</v>
-      </c>
-      <c r="F14" t="s">
-        <v>52</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -911,20 +908,20 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -932,20 +929,20 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" t="s">
         <v>56</v>
-      </c>
-      <c r="F16" t="s">
-        <v>57</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -953,20 +950,20 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -974,20 +971,20 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -995,20 +992,20 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1016,20 +1013,20 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20"/>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1037,20 +1034,20 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21"/>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1058,20 +1055,20 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22"/>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1079,20 +1076,20 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23"/>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1100,18 +1097,18 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
         <v>72</v>
-      </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
-        <v>73</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1119,18 +1116,18 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1138,18 +1135,18 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G26">
         <v>1</v>
